--- a/parse_excel/excel.xlsx
+++ b/parse_excel/excel.xlsx
@@ -33,14 +33,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -100,8 +102,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -122,7 +128,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -149,6 +155,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <f aca="false">DATE(2015,1,2)</f>
+        <v>42006</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
